--- a/assets/temp.xlsx
+++ b/assets/temp.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2115" yWindow="1560" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Template" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -403,7 +403,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>00060185</t>
+          <t>00049649</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Jake Tade</t>
+          <t>Andrew Adams</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -435,7 +435,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>300006791</t>
+          <t>300006793</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
-          <t>Jake Tade</t>
+          <t>Andrew Adams</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>0880011851</t>
+          <t>0880011860</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>No Date - 1/16</t>
+          <t>No Date - 1/17</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
@@ -509,11 +509,7 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="6" t="n"/>
-      <c r="E10" s="12" t="inlineStr">
-        <is>
-          <t>Damaged the props and broke an obstacle avoidance sensor lens. This is the same problem it had before that caused me to send it in for repair.</t>
-        </is>
-      </c>
+      <c r="E10" s="12" t="inlineStr"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="9">
       <c r="A11" s="1" t="inlineStr">

--- a/assets/temp.xlsx
+++ b/assets/temp.xlsx
@@ -403,7 +403,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>00049649</t>
+          <t>00060701</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Andrew Adams</t>
+          <t>Susan Ritter</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -435,7 +435,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>300006793</t>
+          <t>300006794</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
-          <t>Andrew Adams</t>
+          <t>Susan Ritter</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>0880011860</t>
+          <t>0880011861</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
@@ -509,7 +509,11 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="6" t="n"/>
-      <c r="E10" s="12" t="inlineStr"/>
+      <c r="E10" s="12" t="inlineStr">
+        <is>
+          <t>hit a tree and fell. It has a broken arm</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="9">
       <c r="A11" s="1" t="inlineStr">

--- a/assets/temp.xlsx
+++ b/assets/temp.xlsx
@@ -403,7 +403,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>00060701</t>
+          <t>00054255</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Susan Ritter</t>
+          <t>RB FARINA Roofing Co</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -435,7 +435,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>300006794</t>
+          <t>300006799</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
-          <t>Susan Ritter</t>
+          <t>RB FARINA Roofing Co</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>0880011861</t>
+          <t>0880011884</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>No Date - 1/17</t>
+          <t>No Date - 1/22</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
@@ -511,7 +511,7 @@
       <c r="C10" s="6" t="n"/>
       <c r="E10" s="12" t="inlineStr">
         <is>
-          <t>hit a tree and fell. It has a broken arm</t>
+          <t>A strong gust of wind knocked it down.</t>
         </is>
       </c>
     </row>

--- a/assets/temp.xlsx
+++ b/assets/temp.xlsx
@@ -403,7 +403,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>00054255</t>
+          <t>00061095</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>RB FARINA Roofing Co</t>
+          <t>Trent Waters</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -435,7 +435,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>300006799</t>
+          <t>300006818</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
-          <t>RB FARINA Roofing Co</t>
+          <t>Trent Waters</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>0880011884</t>
+          <t>0880011908</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>No Date - 1/22</t>
+          <t>01/23</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
@@ -511,7 +511,7 @@
       <c r="C10" s="6" t="n"/>
       <c r="E10" s="12" t="inlineStr">
         <is>
-          <t>A strong gust of wind knocked it down.</t>
+          <t>drone crashed returning home. guy wrote an essay about it, check sf</t>
         </is>
       </c>
     </row>

--- a/assets/temp.xlsx
+++ b/assets/temp.xlsx
@@ -403,7 +403,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>00061095</t>
+          <t>00061382</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Trent Waters</t>
+          <t>Benjamin Munoz</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -435,7 +435,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>300006818</t>
+          <t>300006827</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
-          <t>Trent Waters</t>
+          <t>Benjamin Munoz</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>0880011908</t>
+          <t>0880011926</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>01/23</t>
+          <t>01/24</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
@@ -511,7 +511,7 @@
       <c r="C10" s="6" t="n"/>
       <c r="E10" s="12" t="inlineStr">
         <is>
-          <t>drone crashed returning home. guy wrote an essay about it, check sf</t>
+          <t>customer said the craft shut down and fell 100 ft to the ground during the rth, he thought it was a product issue, not his responsibility, so asked for a data analysis</t>
         </is>
       </c>
     </row>

--- a/assets/temp.xlsx
+++ b/assets/temp.xlsx
@@ -403,7 +403,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>00061382</t>
+          <t>00060964</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Benjamin Munoz</t>
+          <t>Chad Hale</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -433,11 +433,7 @@
           <t>ZT01 No.:</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>300006827</t>
-        </is>
-      </c>
+      <c r="B3" s="11" t="inlineStr"/>
       <c r="C3" s="3" t="n"/>
       <c r="E3" s="1" t="inlineStr">
         <is>
@@ -446,7 +442,7 @@
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
-          <t>Benjamin Munoz</t>
+          <t>Chad Hale</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -462,11 +458,7 @@
           <t>VL01N No.:</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>0880011926</t>
-        </is>
-      </c>
+      <c r="B5" s="11" t="inlineStr"/>
       <c r="C5" s="7" t="inlineStr">
         <is>
           <t>PGI</t>
@@ -479,7 +471,7 @@
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>01/24</t>
+          <t>01/25</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
@@ -509,11 +501,7 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="6" t="n"/>
-      <c r="E10" s="12" t="inlineStr">
-        <is>
-          <t>customer said the craft shut down and fell 100 ft to the ground during the rth, he thought it was a product issue, not his responsibility, so asked for a data analysis</t>
-        </is>
-      </c>
+      <c r="E10" s="12" t="inlineStr"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="9">
       <c r="A11" s="1" t="inlineStr">

--- a/assets/temp.xlsx
+++ b/assets/temp.xlsx
@@ -403,7 +403,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>00060964</t>
+          <t>00059171</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Chad Hale</t>
+          <t>Christopher Felski</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -433,7 +433,11 @@
           <t>ZT01 No.:</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr"/>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>300006839</t>
+        </is>
+      </c>
       <c r="C3" s="3" t="n"/>
       <c r="E3" s="1" t="inlineStr">
         <is>
@@ -442,7 +446,7 @@
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
-          <t>Chad Hale</t>
+          <t>Christopher Felski</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -458,7 +462,11 @@
           <t>VL01N No.:</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr"/>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>0880011949</t>
+        </is>
+      </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
           <t>PGI</t>
@@ -471,7 +479,7 @@
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>01/25</t>
+          <t>01/26</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
@@ -501,7 +509,11 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="6" t="n"/>
-      <c r="E10" s="12" t="inlineStr"/>
+      <c r="E10" s="12" t="inlineStr">
+        <is>
+          <t>prop damage due to limb strike. props incorrectly replaced resulting in rollover crashes. this may have resulted in broken motor arm and gimble damage.</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="9">
       <c r="A11" s="1" t="inlineStr">

--- a/assets/temp.xlsx
+++ b/assets/temp.xlsx
@@ -403,7 +403,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>00059171</t>
+          <t>00060992</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Christopher Felski</t>
+          <t>Hector Venzor</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -435,7 +435,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>300006839</t>
+          <t>300006848</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
-          <t>Christopher Felski</t>
+          <t>Hector Venzor</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>0880011949</t>
+          <t>0880011962</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
@@ -511,7 +511,7 @@
       <c r="C10" s="6" t="n"/>
       <c r="E10" s="12" t="inlineStr">
         <is>
-          <t>prop damage due to limb strike. props incorrectly replaced resulting in rollover crashes. this may have resulted in broken motor arm and gimble damage.</t>
+          <t>said safe to fly i swiped for it to fly went up and shot it self backwards into a fence propellers broke and crack on side of a leg on body</t>
         </is>
       </c>
     </row>

--- a/assets/temp.xlsx
+++ b/assets/temp.xlsx
@@ -403,7 +403,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>00060992</t>
+          <t>00064729</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Hector Venzor</t>
+          <t>Thomas Gonzales</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -435,7 +435,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>300006848</t>
+          <t>300006917</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
-          <t>Hector Venzor</t>
+          <t>Thomas Gonzales</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>0880011962</t>
+          <t>0880012052</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>01/26</t>
+          <t>02/13</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
@@ -511,7 +511,7 @@
       <c r="C10" s="6" t="n"/>
       <c r="E10" s="12" t="inlineStr">
         <is>
-          <t>said safe to fly i swiped for it to fly went up and shot it self backwards into a fence propellers broke and crack on side of a leg on body</t>
+          <t xml:space="preserve">flew a drone mission over csx railroad property on 3 feb, 2024. no issues during the flight, i brought the drone back with approx. 47% battery life for a landing. once i turned the drone off to replace the battery, the battery that was installed would not release from the drone. </t>
         </is>
       </c>
     </row>

--- a/assets/temp.xlsx
+++ b/assets/temp.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2115" yWindow="1560" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -403,7 +403,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>00064729</t>
+          <t>00069166</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Thomas Gonzales</t>
+          <t>Gene Moon</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -435,7 +435,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>300006917</t>
+          <t>300007195</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
-          <t>Thomas Gonzales</t>
+          <t>Gene Moon</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>0880012052</t>
+          <t>0880012601</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>02/13</t>
+          <t>04/11</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
@@ -511,7 +511,7 @@
       <c r="C10" s="6" t="n"/>
       <c r="E10" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">flew a drone mission over csx railroad property on 3 feb, 2024. no issues during the flight, i brought the drone back with approx. 47% battery life for a landing. once i turned the drone off to replace the battery, the battery that was installed would not release from the drone. </t>
+          <t>every time i power up the aircraft i get a gimbal fault. i have to manually straighten out the gimbal. this is an evo 2 640t enterprise v3.</t>
         </is>
       </c>
     </row>

--- a/assets/temp.xlsx
+++ b/assets/temp.xlsx
@@ -403,7 +403,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>00069166</t>
+          <t>00070973</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Gene Moon</t>
+          <t>Tyler Davis</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -435,7 +435,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>300007195</t>
+          <t>300007196</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
-          <t>Gene Moon</t>
+          <t>Tyler Davis</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>0880012601</t>
+          <t>0880012602</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>04/11</t>
+          <t>04/15</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
@@ -509,11 +509,7 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="6" t="n"/>
-      <c r="E10" s="12" t="inlineStr">
-        <is>
-          <t>every time i power up the aircraft i get a gimbal fault. i have to manually straighten out the gimbal. this is an evo 2 640t enterprise v3.</t>
-        </is>
-      </c>
+      <c r="E10" s="12" t="inlineStr"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="9">
       <c r="A11" s="1" t="inlineStr">

--- a/assets/temp.xlsx
+++ b/assets/temp.xlsx
@@ -403,7 +403,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>00070973</t>
+          <t>00069790</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Tyler Davis</t>
+          <t>Sussie Due</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -435,7 +435,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>300007196</t>
+          <t>300007240</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
-          <t>Tyler Davis</t>
+          <t>Sussie Due</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>0880012602</t>
+          <t>0880012712</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>04/15</t>
+          <t>04/23</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
@@ -509,7 +509,11 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="6" t="n"/>
-      <c r="E10" s="12" t="inlineStr"/>
+      <c r="E10" s="12" t="inlineStr">
+        <is>
+          <t>upon determination, there is a problem as soon as the box is open. please provide warranty service.</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="9">
       <c r="A11" s="1" t="inlineStr">
